--- a/nmadb/501410.xlsx
+++ b/nmadb/501410.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7740"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>Treatments</t>
   </si>
@@ -25,18 +25,6 @@
   </si>
   <si>
     <t>Study (name)</t>
-  </si>
-  <si>
-    <t>Treatment 1</t>
-  </si>
-  <si>
-    <t>Treatment 2</t>
-  </si>
-  <si>
-    <t>SE</t>
-  </si>
-  <si>
-    <t>MD</t>
   </si>
   <si>
     <t>Bokan 2006</t>
@@ -164,15 +152,30 @@
   <si>
     <t>CIH</t>
   </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>MD=effect</t>
+  </si>
+  <si>
+    <t>effect</t>
+  </si>
+  <si>
+    <t>se</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -218,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -243,6 +246,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -258,7 +262,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -332,7 +336,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -367,7 +370,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -543,15 +545,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomLeft" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" hidden="1" customWidth="1"/>
@@ -564,7 +566,7 @@
     <col min="13" max="13" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -572,36 +574,36 @@
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="I1" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -628,20 +630,20 @@
         <f>(H2-G2)/3.92</f>
         <v>0.40816326530612246</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="M2" s="15"/>
+      <c r="M2" s="16"/>
       <c r="N2">
         <v>1</v>
       </c>
       <c r="O2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="9" customFormat="1">
       <c r="A3" s="9" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B3" s="9">
         <v>1</v>
@@ -674,12 +676,12 @@
         <v>2</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -712,12 +714,12 @@
         <v>3</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -750,12 +752,12 @@
         <v>4</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -788,12 +790,12 @@
         <v>5</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -826,12 +828,12 @@
         <v>6</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -859,9 +861,9 @@
         <v>0.35204081632653061</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="A9" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -889,9 +891,9 @@
         <v>0.22959183673469385</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15">
       <c r="A10" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -920,10 +922,13 @@
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M10" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B11">
         <v>9</v>
@@ -951,9 +956,9 @@
         <v>0.32142857142857145</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15">
       <c r="A12" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B12">
         <v>10</v>
@@ -981,9 +986,9 @@
         <v>0.52040816326530615</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" s="9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>11</v>
@@ -1011,9 +1016,9 @@
         <v>0.58163265306122458</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>12</v>
@@ -1041,9 +1046,9 @@
         <v>0.59183673469387765</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" s="9" customFormat="1">
       <c r="A15" s="9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B15" s="9">
         <v>12</v>
@@ -1071,9 +1076,9 @@
         <v>0.59183673469387765</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>13</v>
@@ -1101,9 +1106,9 @@
         <v>0.68877551020408156</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B17">
         <v>14</v>
@@ -1131,9 +1136,9 @@
         <v>0.26020408163265307</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" s="6" customFormat="1">
       <c r="A18" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B18" s="6">
         <v>15</v>
@@ -1161,9 +1166,9 @@
         <v>0.21938775510204081</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B19">
         <v>16</v>
@@ -1191,9 +1196,9 @@
         <v>0.54081632653061229</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" s="6" customFormat="1">
       <c r="A20" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B20" s="6">
         <v>17</v>
@@ -1221,9 +1226,9 @@
         <v>0.62244897959183687</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B21">
         <v>18</v>
@@ -1251,9 +1256,9 @@
         <v>0.43877551020408168</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>19</v>
@@ -1281,9 +1286,9 @@
         <v>0.52040816326530615</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>20</v>
@@ -1311,9 +1316,9 @@
         <v>0.39795918367346939</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>21</v>
@@ -1341,9 +1346,9 @@
         <v>0.4081632653061224</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>22</v>
@@ -1371,9 +1376,9 @@
         <v>0.41836734693877548</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B26">
         <v>23</v>
@@ -1401,9 +1406,9 @@
         <v>0.41836734693877548</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" s="6" customFormat="1">
       <c r="A27" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B27" s="6">
         <v>24</v>
@@ -1431,9 +1436,9 @@
         <v>0.36224489795918369</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B28">
         <v>25</v>
@@ -1461,9 +1466,9 @@
         <v>8.1632653061224511E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" s="6" customFormat="1">
       <c r="A29" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B29" s="6">
         <v>26</v>
@@ -1491,9 +1496,9 @@
         <v>0.35204081632653061</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B30">
         <v>27</v>
@@ -1521,7 +1526,7 @@
         <v>0.4081632653061224</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" s="6" customFormat="1">
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="F31" s="3"/>
@@ -1529,7 +1534,7 @@
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
-    <row r="33" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" s="6" customFormat="1">
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="F33" s="3"/>
@@ -1537,10 +1542,10 @@
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="6"/>
     </row>
-    <row r="35" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" s="6" customFormat="1">
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="F35" s="3"/>
@@ -1548,7 +1553,7 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="44" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" s="6" customFormat="1">
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
       <c r="F44" s="3"/>
@@ -1566,24 +1571,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
